--- a/course_notes/AI_MSE_companies_Jan2026.xlsx
+++ b/course_notes/AI_MSE_companies_Jan2026.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\teaching\5540-6640 Materials Informatics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\teaching\5540-6640 Materials Informatics\MaterialsInformatics\course_notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4014FA46-56BE-4258-B642-9DD910E99CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BB8E9A-6B97-4062-9D41-B4F013F283CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>company</t>
   </si>
@@ -391,9 +391,6 @@
     <t>https://polymerize.io/</t>
   </si>
   <si>
-    <t>$4.2M Series A (May 2022)</t>
-  </si>
-  <si>
     <t>(Team not in sources)</t>
   </si>
   <si>
@@ -601,9 +598,6 @@
     <t>https://orbitalmaterials.com/</t>
   </si>
   <si>
-    <t>Investment from NVentures (amount undisclosed; Oct 2024)</t>
-  </si>
-  <si>
     <t>(CEO Jonathan Godwin, per coverage)</t>
   </si>
   <si>
@@ -659,13 +653,37 @@
   </si>
   <si>
     <t>Spinout leadership from FutureHouse platform team (per announcement). Andrew White (University of Rochester)</t>
+  </si>
+  <si>
+    <t>$4.2 M Series A (May 2022)</t>
+  </si>
+  <si>
+    <t>$200M Series B</t>
+  </si>
+  <si>
+    <t>Multiscale Technologies</t>
+  </si>
+  <si>
+    <t>Surya Kalidindi (Georgia Tech)</t>
+  </si>
+  <si>
+    <t>$18.6M Series B</t>
+  </si>
+  <si>
+    <t>https://tracxn.com/d/companies/multiscale/__LsUwhtksqt5M67tQs2wQZhuYIXWvKsff-earwXScXIg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AI based platform offering material planning for the manufacturing sector</t>
+  </si>
+  <si>
+    <t>multiscale.tech</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,6 +705,14 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -705,10 +731,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -717,8 +744,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1051,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1087,7 +1116,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H1"/>
     </row>
@@ -1102,7 +1131,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
@@ -1123,7 +1152,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
@@ -1215,7 +1244,7 @@
         <v>40</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>41</v>
@@ -1488,289 +1517,312 @@
         <v>122</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E31" t="s">
         <v>209</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E31" t="s">
-        <v>211</v>
+    </row>
+    <row r="32" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G32" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B32" r:id="rId1" display="http://multiscale.tech/" xr:uid="{77E2AD0A-5697-430B-B9EC-B93935AC8960}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>